--- a/tests/ExcelTest/TestBookQuotes.xlsx
+++ b/tests/ExcelTest/TestBookQuotes.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>"1"</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,14 +343,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A2:C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1">
         <v>2</v>
